--- a/kalk_pregled_prod_1.xlsx
+++ b/kalk_pregled_prod_1.xlsx
@@ -72,7 +72,7 @@
     <t xml:space="preserve">${osnovna_cijena}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ctrl + shift + F9 (rekalkulacija)</t>
+    <t xml:space="preserve">Ctrl + SHIFT + F9 (rekalkulacija)</t>
   </si>
   <si>
     <t xml:space="preserve">cijena</t>
@@ -541,7 +541,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/kalk_pregled_prod_1.xlsx
+++ b/kalk_pregled_prod_1.xlsx
@@ -5,27 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="p2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="p16" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="p17" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="01" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="02" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="03" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Footer3" vbProcedure="false">master!$A$3:$G$5</definedName>
-    <definedName function="false" hidden="false" name="Header" vbProcedure="false">p2!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" name="Header2" vbProcedure="false">p16!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" name="Header3" vbProcedure="false">master!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" name="range_p16" vbProcedure="false">p16!$A$2:$F$40</definedName>
-    <definedName function="false" hidden="false" name="range_p2" vbProcedure="false">p2!$A$2:$F$40</definedName>
-    <definedName function="false" hidden="false" name="Sql1" vbProcedure="false">p2!$A$2:$F$2</definedName>
-    <definedName function="false" hidden="false" name="Sql2" vbProcedure="false">p16!$A$2:$F$2</definedName>
-    <definedName function="false" hidden="false" name="Sql3" vbProcedure="false">master!$A$2:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="Header4" vbProcedure="false">p17!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="range_p16" vbProcedure="false">p17!$A$2:$F$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="Sql4" vbProcedure="false">p17!$A$2:$F$2</definedName>
+    <definedName function="false" hidden="false" name="Footer1" vbProcedure="false">master!$A$4:$H$6</definedName>
+    <definedName function="false" hidden="false" name="Footer2" vbProcedure="false">'01'!$E$7:$P$7</definedName>
+    <definedName function="false" hidden="false" name="Header1" vbProcedure="false">master!$A$1:$H$2</definedName>
+    <definedName function="false" hidden="false" name="Header2" vbProcedure="false">'01'!$A$1:$P$5</definedName>
+    <definedName function="false" hidden="false" name="Header3" vbProcedure="false">'02'!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" name="Header4" vbProcedure="false">'03'!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" name="Sql1" vbProcedure="false">master!$A$3:$H$3</definedName>
+    <definedName function="false" hidden="false" name="Sql2" vbProcedure="false">'01'!$A$6:$P$6</definedName>
+    <definedName function="false" hidden="false" name="Sql3" vbProcedure="false">'02'!$A$2:$F$2</definedName>
+    <definedName function="false" hidden="false" name="Sql4" vbProcedure="false">'03'!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+  <si>
+    <t xml:space="preserve">${hvar1}</t>
+  </si>
   <si>
     <t xml:space="preserve">Artikal</t>
   </si>
@@ -45,19 +46,19 @@
     <t xml:space="preserve">Naziv</t>
   </si>
   <si>
+    <t xml:space="preserve">barkod</t>
+  </si>
+  <si>
     <t xml:space="preserve">JMJ</t>
   </si>
   <si>
     <t xml:space="preserve">osnovna cijena</t>
   </si>
   <si>
-    <t xml:space="preserve">p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17</t>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">${id}</t>
@@ -66,13 +67,121 @@
     <t xml:space="preserve">${naz}</t>
   </si>
   <si>
+    <t xml:space="preserve">${barkod}</t>
+  </si>
+  <si>
     <t xml:space="preserve">${jmj}</t>
   </si>
   <si>
     <t xml:space="preserve">${osnovna_cijena}</t>
   </si>
   <si>
-    <t xml:space="preserve">Ctrl + SHIFT + F9 (rekalkulacija)</t>
+    <t xml:space="preserve">Ctrl + SHIFT + F9 (rekalkulacija)  ${fvar1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodavnica: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${prod}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${dat_od} - ${dat_do}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osnovna cijena (sa PDV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">količine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrijednost (KM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predhodno stanje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izlazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaliha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prijem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostali ulazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povrat (-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realizacija</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> od toga sa popustom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostali izlazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanje kalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizacija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRIJEDNOST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${idroba}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${roba_naz}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${p_stanje}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${prijem}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ulaz_ostalo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${povrat}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${realizacija}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${popust}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${izlaz_ostalo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${u_kalo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${realizacija_v}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${popust_v}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${u_vrijednost}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naziv ${prod}</t>
   </si>
   <si>
     <t xml:space="preserve">cijena</t>
@@ -82,12 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">kol42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${idroba}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${roba_naz}</t>
   </si>
   <si>
     <t xml:space="preserve">${cijena}</t>
@@ -103,11 +206,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,6 +332,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -235,14 +346,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,7 +391,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -282,17 +409,41 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -322,6 +473,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -399,7 +557,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,6 +566,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -420,28 +582,112 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -486,12 +732,12 @@
       <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -505,9 +751,9 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -538,84 +784,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="3" style="0" width="13.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="3" style="0" width="13.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" s="5" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AME1" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="10" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f aca="false">'01'!B1</f>
+        <v>${prod}</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="n">
-        <f aca="false">_xlfn.IFNA(VLOOKUP($A2,p2!$A$2:$F$999,6,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="9" t="n">
-        <f aca="false">_xlfn.IFNA(VLOOKUP($A2,p16!$A$2:$F$999,6,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="n">
-        <f aca="false">_xlfn.IFNA(VLOOKUP($A2,p17!$A$2:$F$999,6,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AME2" s="0"/>
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="3" s="13" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <f aca="false">_xlfn.IFNA(VLOOKUP($A3,'01'!$A$6:$P$1003,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <f aca="false">_xlfn.IFNA(VLOOKUP($A3,'02'!$A$2:$F$999,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <f aca="false">_xlfn.IFNA(VLOOKUP($A3,'03'!$A$2:$F$999,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -634,75 +902,290 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="3" style="0" width="13.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="13.31"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="10" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+      <c r="E6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="27" t="e">
+        <f aca="false">E6+F6+G6-H6-I6-K6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="29" t="n">
+        <f aca="false">SUMIF(E6:E9000,"&gt;0") + SUMIF(E6:E9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="30" t="n">
+        <f aca="false">SUMIF(F6:F9000,"&gt;0") + SUMIF(F6:F9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="30" t="n">
+        <f aca="false">SUMIF(G6:G9000,"&gt;0") + SUMIF(G6:G9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="30" t="n">
+        <f aca="false">SUMIF(H6:H9000,"&gt;0") + SUMIF(H6:H9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="30" t="n">
+        <f aca="false">SUMIF(I6:I9000,"&gt;0") + SUMIF(I6:I9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="30" t="n">
+        <f aca="false">SUMIF(J6:J9000,"&gt;0") + SUMIF(J6:J9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="30" t="n">
+        <f aca="false">SUMIF(K6:K9000,"&gt;0") + SUMIF(K6:K9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="30" t="n">
+        <f aca="false">SUMIF(L6:L9000,"&gt;0") + SUMIF(L6:L9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="30" t="n">
+        <f aca="false">SUMIF(M6:M9000,"&gt;0") + SUMIF(M6:M9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="31" t="n">
+        <f aca="false">SUMIF(N6:N9000,"&gt;0") + SUMIF(N6:N9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="31" t="n">
+        <f aca="false">SUMIF(O6:O9000,"&gt;0") + SUMIF(O6:O9000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="31" t="n">
+        <f aca="false">SUMIF(P6:P1000,"&gt;0") + SUMIF(P6:P1000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.435416666666667" right="0.40625" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -721,7 +1204,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -732,24 +1215,24 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="AMD1" s="0"/>
       <c r="AME1" s="0"/>
@@ -759,24 +1242,24 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="10" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
+    <row r="2" s="13" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="AMD2" s="0"/>
       <c r="AME2" s="0"/>
@@ -805,7 +1288,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -816,24 +1299,24 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="AMD1" s="0"/>
       <c r="AME1" s="0"/>
@@ -843,24 +1326,24 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="10" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
+    <row r="2" s="13" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="AMD2" s="0"/>
       <c r="AME2" s="0"/>
